--- a/data_publico/Cantidad de público por día.xlsx
+++ b/data_publico/Cantidad de público por día.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="4">
   <si>
     <t>Fecha</t>
   </si>
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>Cant. Público</t>
-  </si>
-  <si>
-    <t>Cant. Público original</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -344,7 +341,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="6" max="6" width="14.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -357,21 +353,15 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4">
         <v>44378.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6">
-        <v>5034.0</v>
-      </c>
-      <c r="F2" s="6">
         <v>5034.0</v>
       </c>
     </row>
@@ -380,12 +370,9 @@
         <v>44379.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>5649.0</v>
-      </c>
-      <c r="F3" s="6">
         <v>5649.0</v>
       </c>
     </row>
@@ -394,12 +381,9 @@
         <v>44380.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>7692.0</v>
-      </c>
-      <c r="F4" s="6">
         <v>7692.0</v>
       </c>
     </row>
@@ -408,12 +392,9 @@
         <v>44381.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>6640.0</v>
-      </c>
-      <c r="F5" s="6">
         <v>6640.0</v>
       </c>
     </row>
@@ -422,12 +403,9 @@
         <v>44382.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6">
-        <v>4680.0</v>
-      </c>
-      <c r="F6" s="6">
         <v>4680.0</v>
       </c>
     </row>
@@ -436,12 +414,9 @@
         <v>44383.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6">
-        <v>5683.0</v>
-      </c>
-      <c r="F7" s="6">
         <v>5683.0</v>
       </c>
     </row>
@@ -450,12 +425,9 @@
         <v>44384.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
-        <v>5173.0</v>
-      </c>
-      <c r="F8" s="6">
         <v>5173.0</v>
       </c>
     </row>
@@ -464,12 +436,9 @@
         <v>44385.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>5575.0</v>
-      </c>
-      <c r="F9" s="6">
         <v>5575.0</v>
       </c>
     </row>
@@ -478,12 +447,9 @@
         <v>44386.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>9705.0</v>
-      </c>
-      <c r="F10" s="6">
         <v>9705.0</v>
       </c>
     </row>
@@ -492,12 +458,9 @@
         <v>44387.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>8730.0</v>
-      </c>
-      <c r="F11" s="6">
         <v>8730.0</v>
       </c>
     </row>
@@ -506,12 +469,9 @@
         <v>44388.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>10639.0</v>
-      </c>
-      <c r="F12" s="6">
         <v>10639.0</v>
       </c>
     </row>
@@ -520,12 +480,9 @@
         <v>44389.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>7971.0</v>
-      </c>
-      <c r="F13" s="6">
         <v>7971.0</v>
       </c>
     </row>
@@ -534,12 +491,9 @@
         <v>44390.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6">
-        <v>7856.0</v>
-      </c>
-      <c r="F14" s="6">
         <v>7856.0</v>
       </c>
     </row>
@@ -548,12 +502,9 @@
         <v>44391.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6">
-        <v>9348.0</v>
-      </c>
-      <c r="F15" s="6">
         <v>9348.0</v>
       </c>
     </row>
@@ -562,12 +513,9 @@
         <v>44392.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>9644.0</v>
-      </c>
-      <c r="F16" s="6">
         <v>9644.0</v>
       </c>
     </row>
@@ -576,12 +524,9 @@
         <v>44393.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>10643.0</v>
-      </c>
-      <c r="F17" s="6">
         <v>10643.0</v>
       </c>
     </row>
@@ -590,12 +535,9 @@
         <v>44394.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>12874.0</v>
-      </c>
-      <c r="F18" s="6">
         <v>12874.0</v>
       </c>
     </row>
@@ -604,12 +546,9 @@
         <v>44395.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>13403.0</v>
-      </c>
-      <c r="F19" s="6">
         <v>13403.0</v>
       </c>
     </row>
@@ -618,12 +557,9 @@
         <v>44396.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>9766.0</v>
-      </c>
-      <c r="F20" s="6">
         <v>9766.0</v>
       </c>
     </row>
@@ -632,12 +568,9 @@
         <v>44397.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6">
-        <v>11236.0</v>
-      </c>
-      <c r="F21" s="6">
         <v>11236.0</v>
       </c>
     </row>
@@ -646,12 +579,9 @@
         <v>44398.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6">
-        <v>9632.0</v>
-      </c>
-      <c r="F22" s="6">
         <v>9632.0</v>
       </c>
     </row>
@@ -660,12 +590,9 @@
         <v>44399.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6">
-        <v>9285.0</v>
-      </c>
-      <c r="F23" s="6">
         <v>9285.0</v>
       </c>
     </row>
@@ -674,12 +601,9 @@
         <v>44400.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6">
-        <v>10625.0</v>
-      </c>
-      <c r="F24" s="6">
         <v>10625.0</v>
       </c>
     </row>
@@ -688,12 +612,9 @@
         <v>44401.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6">
-        <v>12022.0</v>
-      </c>
-      <c r="F25" s="6">
         <v>12022.0</v>
       </c>
     </row>
@@ -702,12 +623,9 @@
         <v>44402.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="6">
-        <v>11279.0</v>
-      </c>
-      <c r="F26" s="6">
         <v>11279.0</v>
       </c>
     </row>
@@ -716,12 +634,9 @@
         <v>44403.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6">
-        <v>6002.0</v>
-      </c>
-      <c r="F27" s="6">
         <v>6002.0</v>
       </c>
     </row>
@@ -730,12 +645,9 @@
         <v>44404.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6">
-        <v>6040.0</v>
-      </c>
-      <c r="F28" s="6">
         <v>6040.0</v>
       </c>
     </row>
@@ -744,12 +656,9 @@
         <v>44405.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="6">
-        <v>6092.0</v>
-      </c>
-      <c r="F29" s="6">
         <v>6092.0</v>
       </c>
     </row>
@@ -758,12 +667,9 @@
         <v>44406.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6">
-        <v>6807.0</v>
-      </c>
-      <c r="F30" s="6">
         <v>6807.0</v>
       </c>
     </row>
@@ -772,12 +678,9 @@
         <v>44407.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6">
-        <v>8383.0</v>
-      </c>
-      <c r="F31" s="6">
         <v>8383.0</v>
       </c>
     </row>
@@ -786,12 +689,9 @@
         <v>44408.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6">
-        <v>11783.0</v>
-      </c>
-      <c r="F32" s="6">
         <v>11783.0</v>
       </c>
     </row>
@@ -800,12 +700,9 @@
         <v>44409.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6">
-        <v>10812.0</v>
-      </c>
-      <c r="F33" s="6">
         <v>10812.0</v>
       </c>
     </row>
@@ -814,12 +711,9 @@
         <v>44410.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6">
-        <v>6233.0</v>
-      </c>
-      <c r="F34" s="6">
         <v>6233.0</v>
       </c>
     </row>
@@ -828,12 +722,9 @@
         <v>44411.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6">
-        <v>6313.0</v>
-      </c>
-      <c r="F35" s="6">
         <v>6313.0</v>
       </c>
     </row>
@@ -842,12 +733,9 @@
         <v>44412.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="6">
-        <v>6431.0</v>
-      </c>
-      <c r="F36" s="6">
         <v>6431.0</v>
       </c>
     </row>
@@ -856,12 +744,9 @@
         <v>44413.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6">
-        <v>7270.0</v>
-      </c>
-      <c r="F37" s="6">
         <v>7270.0</v>
       </c>
     </row>
@@ -870,12 +755,9 @@
         <v>44414.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="6">
-        <v>9439.0</v>
-      </c>
-      <c r="F38" s="6">
         <v>9439.0</v>
       </c>
     </row>
@@ -884,12 +766,9 @@
         <v>44415.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="6">
-        <v>11913.0</v>
-      </c>
-      <c r="F39" s="6">
         <v>11913.0</v>
       </c>
     </row>
@@ -898,12 +777,9 @@
         <v>44416.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="6">
-        <v>11827.0</v>
-      </c>
-      <c r="F40" s="6">
         <v>11827.0</v>
       </c>
     </row>
@@ -912,12 +788,9 @@
         <v>44417.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6">
-        <v>6205.0</v>
-      </c>
-      <c r="F41" s="6">
         <v>6205.0</v>
       </c>
     </row>
@@ -926,12 +799,9 @@
         <v>44418.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6">
-        <v>6649.0</v>
-      </c>
-      <c r="F42" s="6">
         <v>6649.0</v>
       </c>
     </row>
@@ -940,12 +810,9 @@
         <v>44419.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="6">
-        <v>6731.0</v>
-      </c>
-      <c r="F43" s="6">
         <v>6731.0</v>
       </c>
     </row>
@@ -954,12 +821,9 @@
         <v>44420.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="6">
-        <v>6844.0</v>
-      </c>
-      <c r="F44" s="6">
         <v>6844.0</v>
       </c>
     </row>
@@ -968,12 +832,9 @@
         <v>44421.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="6">
-        <v>9918.0</v>
-      </c>
-      <c r="F45" s="6">
         <v>9918.0</v>
       </c>
     </row>
@@ -982,12 +843,9 @@
         <v>44422.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="6">
-        <v>13423.0</v>
-      </c>
-      <c r="F46" s="6">
         <v>13423.0</v>
       </c>
     </row>
@@ -996,12 +854,9 @@
         <v>44423.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="6">
-        <v>16216.0</v>
-      </c>
-      <c r="F47" s="6">
         <v>16216.0</v>
       </c>
     </row>
@@ -1010,12 +865,9 @@
         <v>44424.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="6">
-        <v>12945.0</v>
-      </c>
-      <c r="F48" s="6">
         <v>12945.0</v>
       </c>
     </row>
@@ -1024,12 +876,9 @@
         <v>44425.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="6">
-        <v>5795.0</v>
-      </c>
-      <c r="F49" s="6">
         <v>5795.0</v>
       </c>
     </row>
@@ -1038,12 +887,9 @@
         <v>44426.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="6">
-        <v>6254.0</v>
-      </c>
-      <c r="F50" s="6">
         <v>6254.0</v>
       </c>
     </row>
@@ -1052,12 +898,9 @@
         <v>44427.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="6">
-        <v>6518.0</v>
-      </c>
-      <c r="F51" s="6">
         <v>6518.0</v>
       </c>
     </row>
@@ -1066,12 +909,9 @@
         <v>44428.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="6">
-        <v>9260.0</v>
-      </c>
-      <c r="F52" s="6">
         <v>9260.0</v>
       </c>
     </row>
@@ -1080,12 +920,9 @@
         <v>44429.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="6">
-        <v>13264.0</v>
-      </c>
-      <c r="F53" s="6">
         <v>13264.0</v>
       </c>
     </row>
@@ -1094,12 +931,9 @@
         <v>44430.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="6">
-        <v>10982.0</v>
-      </c>
-      <c r="F54" s="6">
         <v>10982.0</v>
       </c>
     </row>
@@ -1108,12 +942,9 @@
         <v>44431.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="6">
-        <v>5917.0</v>
-      </c>
-      <c r="F55" s="6">
         <v>5917.0</v>
       </c>
     </row>
@@ -1122,12 +953,9 @@
         <v>44432.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="6">
-        <v>6226.0</v>
-      </c>
-      <c r="F56" s="6">
         <v>6226.0</v>
       </c>
     </row>
@@ -1136,12 +964,9 @@
         <v>44433.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="6">
-        <v>6901.0</v>
-      </c>
-      <c r="F57" s="6">
         <v>6901.0</v>
       </c>
     </row>
@@ -1150,12 +975,9 @@
         <v>44434.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="6">
-        <v>6842.0</v>
-      </c>
-      <c r="F58" s="6">
         <v>6842.0</v>
       </c>
     </row>
@@ -1164,12 +986,9 @@
         <v>44435.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="6">
-        <v>9294.0</v>
-      </c>
-      <c r="F59" s="6">
         <v>9294.0</v>
       </c>
     </row>
@@ -1178,12 +997,9 @@
         <v>44436.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="6">
-        <v>12493.0</v>
-      </c>
-      <c r="F60" s="6">
         <v>12493.0</v>
       </c>
     </row>
@@ -1192,12 +1008,9 @@
         <v>44437.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="6">
-        <v>10737.0</v>
-      </c>
-      <c r="F61" s="6">
         <v>10737.0</v>
       </c>
     </row>
@@ -1206,12 +1019,9 @@
         <v>44438.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="6">
-        <v>5939.0</v>
-      </c>
-      <c r="F62" s="6">
         <v>5939.0</v>
       </c>
     </row>
@@ -1220,12 +1030,9 @@
         <v>44439.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="6">
-        <v>6451.0</v>
-      </c>
-      <c r="F63" s="6">
         <v>6451.0</v>
       </c>
     </row>
@@ -1234,12 +1041,9 @@
         <v>44440.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="6">
-        <v>6750.0</v>
-      </c>
-      <c r="F64" s="6">
         <v>6750.0</v>
       </c>
     </row>
@@ -1248,12 +1052,9 @@
         <v>44441.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="6">
-        <v>7369.0</v>
-      </c>
-      <c r="F65" s="6">
         <v>7369.0</v>
       </c>
     </row>
@@ -1262,12 +1063,9 @@
         <v>44442.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="6">
-        <v>9883.0</v>
-      </c>
-      <c r="F66" s="6">
         <v>9883.0</v>
       </c>
     </row>
@@ -1276,12 +1074,9 @@
         <v>44443.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="6">
-        <v>14833.0</v>
-      </c>
-      <c r="F67" s="6">
         <v>14833.0</v>
       </c>
     </row>
@@ -1290,12 +1085,9 @@
         <v>44444.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="6">
-        <v>10810.0</v>
-      </c>
-      <c r="F68" s="6">
         <v>10810.0</v>
       </c>
     </row>
@@ -1304,12 +1096,9 @@
         <v>44445.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="6">
-        <v>6782.0</v>
-      </c>
-      <c r="F69" s="6">
         <v>6782.0</v>
       </c>
     </row>
@@ -1318,12 +1107,9 @@
         <v>44446.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="6">
-        <v>6904.0</v>
-      </c>
-      <c r="F70" s="6">
         <v>6904.0</v>
       </c>
     </row>
@@ -1332,12 +1118,9 @@
         <v>44447.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="6">
-        <v>7318.0</v>
-      </c>
-      <c r="F71" s="6">
         <v>7318.0</v>
       </c>
     </row>
@@ -1346,12 +1129,9 @@
         <v>44448.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="6">
-        <v>7302.0</v>
-      </c>
-      <c r="F72" s="6">
         <v>7302.0</v>
       </c>
     </row>
@@ -1360,12 +1140,9 @@
         <v>44449.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="6">
-        <v>9935.0</v>
-      </c>
-      <c r="F73" s="6">
         <v>9935.0</v>
       </c>
     </row>
@@ -1374,12 +1151,9 @@
         <v>44450.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="6">
-        <v>14015.0</v>
-      </c>
-      <c r="F74" s="6">
         <v>14015.0</v>
       </c>
     </row>
@@ -1388,12 +1162,9 @@
         <v>44451.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="6">
-        <v>9946.0</v>
-      </c>
-      <c r="F75" s="6">
         <v>9946.0</v>
       </c>
     </row>
@@ -1402,12 +1173,9 @@
         <v>44452.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="6">
-        <v>6343.0</v>
-      </c>
-      <c r="F76" s="6">
         <v>6343.0</v>
       </c>
     </row>
@@ -1416,12 +1184,9 @@
         <v>44453.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="6">
-        <v>7434.0</v>
-      </c>
-      <c r="F77" s="6">
         <v>7434.0</v>
       </c>
     </row>
@@ -1430,12 +1195,9 @@
         <v>44454.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="6">
-        <v>6779.0</v>
-      </c>
-      <c r="F78" s="6">
         <v>6779.0</v>
       </c>
     </row>
@@ -1444,12 +1206,9 @@
         <v>44455.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="6">
-        <v>6851.0</v>
-      </c>
-      <c r="F79" s="6">
         <v>6851.0</v>
       </c>
     </row>
@@ -1458,12 +1217,9 @@
         <v>44456.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="6">
-        <v>9128.0</v>
-      </c>
-      <c r="F80" s="6">
         <v>9128.0</v>
       </c>
     </row>
@@ -1472,12 +1228,9 @@
         <v>44457.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="6">
-        <v>12457.0</v>
-      </c>
-      <c r="F81" s="6">
         <v>12457.0</v>
       </c>
     </row>
@@ -1486,12 +1239,9 @@
         <v>44458.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="6">
-        <v>10361.0</v>
-      </c>
-      <c r="F82" s="6">
         <v>10361.0</v>
       </c>
     </row>
@@ -1500,12 +1250,9 @@
         <v>44459.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="6">
-        <v>6296.0</v>
-      </c>
-      <c r="F83" s="6">
         <v>6296.0</v>
       </c>
     </row>
@@ -1514,12 +1261,9 @@
         <v>44460.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="6">
-        <v>8323.0</v>
-      </c>
-      <c r="F84" s="6">
         <v>8323.0</v>
       </c>
     </row>
@@ -1528,12 +1272,9 @@
         <v>44461.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="6">
-        <v>7140.0</v>
-      </c>
-      <c r="F85" s="6">
         <v>7140.0</v>
       </c>
     </row>
@@ -1542,12 +1283,9 @@
         <v>44462.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="6">
-        <v>7425.0</v>
-      </c>
-      <c r="F86" s="6">
         <v>7425.0</v>
       </c>
     </row>
@@ -1556,12 +1294,9 @@
         <v>44463.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="6">
-        <v>9053.0</v>
-      </c>
-      <c r="F87" s="6">
         <v>9053.0</v>
       </c>
     </row>
@@ -1570,12 +1305,9 @@
         <v>44464.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="6">
-        <v>11981.0</v>
-      </c>
-      <c r="F88" s="6">
         <v>11981.0</v>
       </c>
     </row>
@@ -1584,12 +1316,9 @@
         <v>44465.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="6">
-        <v>9114.0</v>
-      </c>
-      <c r="F89" s="6">
         <v>9114.0</v>
       </c>
     </row>
@@ -1598,12 +1327,9 @@
         <v>44466.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="6">
-        <v>1710.0</v>
-      </c>
-      <c r="F90" s="6">
         <v>1710.0</v>
       </c>
     </row>
@@ -1612,12 +1338,9 @@
         <v>44467.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="6">
-        <v>6938.0</v>
-      </c>
-      <c r="F91" s="6">
         <v>6938.0</v>
       </c>
     </row>
@@ -1626,12 +1349,9 @@
         <v>44468.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="6">
-        <v>6715.0</v>
-      </c>
-      <c r="F92" s="6">
         <v>6715.0</v>
       </c>
     </row>
@@ -1640,12 +1360,9 @@
         <v>44469.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="6">
-        <v>8619.0</v>
-      </c>
-      <c r="F93" s="6">
         <v>8619.0</v>
       </c>
     </row>
@@ -1654,12 +1371,9 @@
         <v>44470.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="6">
-        <v>9512.0</v>
-      </c>
-      <c r="F94" s="6">
         <v>9512.0</v>
       </c>
     </row>
@@ -1668,12 +1382,9 @@
         <v>44471.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="6">
-        <v>12455.0</v>
-      </c>
-      <c r="F95" s="6">
         <v>12455.0</v>
       </c>
     </row>
@@ -1682,12 +1393,9 @@
         <v>44472.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="6">
-        <v>9994.0</v>
-      </c>
-      <c r="F96" s="6">
         <v>9994.0</v>
       </c>
     </row>
@@ -1696,12 +1404,9 @@
         <v>44473.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="6">
-        <v>6529.0</v>
-      </c>
-      <c r="F97" s="6">
         <v>6529.0</v>
       </c>
     </row>
@@ -1710,12 +1415,9 @@
         <v>44474.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="6">
-        <v>7622.0</v>
-      </c>
-      <c r="F98" s="6">
         <v>7622.0</v>
       </c>
     </row>
@@ -1724,12 +1426,9 @@
         <v>44475.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="6">
-        <v>7899.0</v>
-      </c>
-      <c r="F99" s="6">
         <v>7899.0</v>
       </c>
     </row>
@@ -1738,12 +1437,9 @@
         <v>44476.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="6">
-        <v>9841.0</v>
-      </c>
-      <c r="F100" s="6">
         <v>9841.0</v>
       </c>
     </row>
@@ -1752,12 +1448,9 @@
         <v>44477.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="6">
-        <v>14065.0</v>
-      </c>
-      <c r="F101" s="6">
         <v>14065.0</v>
       </c>
     </row>
@@ -1766,12 +1459,9 @@
         <v>44478.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="6">
-        <v>14209.0</v>
-      </c>
-      <c r="F102" s="6">
         <v>14209.0</v>
       </c>
     </row>
@@ -1780,12 +1470,9 @@
         <v>44479.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="6">
-        <v>13032.0</v>
-      </c>
-      <c r="F103" s="6">
         <v>13032.0</v>
       </c>
     </row>
@@ -1794,12 +1481,9 @@
         <v>44480.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="6">
-        <v>12600.0</v>
-      </c>
-      <c r="F104" s="6">
         <v>12600.0</v>
       </c>
     </row>
@@ -1808,12 +1492,9 @@
         <v>44481.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="6">
-        <v>8561.0</v>
-      </c>
-      <c r="F105" s="6">
         <v>8561.0</v>
       </c>
     </row>
@@ -1822,12 +1503,9 @@
         <v>44482.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="6">
-        <v>8789.0</v>
-      </c>
-      <c r="F106" s="6">
         <v>8789.0</v>
       </c>
     </row>
@@ -1836,12 +1514,9 @@
         <v>44483.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="6">
-        <v>8356.0</v>
-      </c>
-      <c r="F107" s="6">
         <v>8356.0</v>
       </c>
     </row>
@@ -1850,12 +1525,9 @@
         <v>44484.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="6">
-        <v>13854.0</v>
-      </c>
-      <c r="F108" s="6">
         <v>13854.0</v>
       </c>
     </row>
@@ -1864,12 +1536,9 @@
         <v>44485.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="6">
-        <v>18628.0</v>
-      </c>
-      <c r="F109" s="6">
         <v>18628.0</v>
       </c>
     </row>
@@ -1878,12 +1547,9 @@
         <v>44486.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="6">
-        <v>10806.0</v>
-      </c>
-      <c r="F110" s="6">
         <v>10806.0</v>
       </c>
     </row>
@@ -1892,12 +1558,9 @@
         <v>44487.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="6">
-        <v>6822.0</v>
-      </c>
-      <c r="F111" s="6">
         <v>6822.0</v>
       </c>
     </row>
@@ -1906,12 +1569,9 @@
         <v>44488.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="6">
-        <v>7355.0</v>
-      </c>
-      <c r="F112" s="6">
         <v>7355.0</v>
       </c>
     </row>
@@ -1920,12 +1580,9 @@
         <v>44489.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" s="6">
-        <v>6982.0</v>
-      </c>
-      <c r="F113" s="6">
         <v>6982.0</v>
       </c>
     </row>
@@ -1934,12 +1591,9 @@
         <v>44490.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="6">
-        <v>7657.0</v>
-      </c>
-      <c r="F114" s="6">
         <v>7657.0</v>
       </c>
     </row>
@@ -1948,12 +1602,9 @@
         <v>44491.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="6">
-        <v>9728.0</v>
-      </c>
-      <c r="F115" s="6">
         <v>9728.0</v>
       </c>
     </row>
@@ -1962,12 +1613,9 @@
         <v>44492.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="6">
-        <v>14350.0</v>
-      </c>
-      <c r="F116" s="6">
         <v>14350.0</v>
       </c>
     </row>
@@ -1976,12 +1624,9 @@
         <v>44493.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="6">
-        <v>10868.0</v>
-      </c>
-      <c r="F117" s="6">
         <v>10868.0</v>
       </c>
     </row>
@@ -1990,12 +1635,9 @@
         <v>44494.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="6">
-        <v>6454.0</v>
-      </c>
-      <c r="F118" s="6">
         <v>6454.0</v>
       </c>
     </row>
@@ -2004,12 +1646,9 @@
         <v>44495.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="6">
-        <v>6943.0</v>
-      </c>
-      <c r="F119" s="6">
         <v>6943.0</v>
       </c>
     </row>
@@ -2018,12 +1657,9 @@
         <v>44496.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="6">
-        <v>7327.0</v>
-      </c>
-      <c r="F120" s="6">
         <v>7327.0</v>
       </c>
     </row>
@@ -2032,12 +1668,9 @@
         <v>44497.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="6">
-        <v>6998.0</v>
-      </c>
-      <c r="F121" s="6">
         <v>6998.0</v>
       </c>
     </row>
@@ -2046,12 +1679,9 @@
         <v>44498.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="6">
-        <v>9283.0</v>
-      </c>
-      <c r="F122" s="6">
         <v>9283.0</v>
       </c>
     </row>
@@ -2060,12 +1690,9 @@
         <v>44499.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" s="6">
-        <v>10783.0</v>
-      </c>
-      <c r="F123" s="6">
         <v>10783.0</v>
       </c>
     </row>
@@ -2074,12 +1701,9 @@
         <v>44500.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" s="6">
-        <v>11082.0</v>
-      </c>
-      <c r="F124" s="6">
         <v>11082.0</v>
       </c>
     </row>
@@ -2088,12 +1712,9 @@
         <v>44501.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" s="6">
-        <v>7145.0</v>
-      </c>
-      <c r="F125" s="6">
         <v>7145.0</v>
       </c>
     </row>
@@ -2102,12 +1723,9 @@
         <v>44502.0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" s="6">
-        <v>7063.0</v>
-      </c>
-      <c r="F126" s="6">
         <v>7063.0</v>
       </c>
     </row>
@@ -2116,12 +1734,9 @@
         <v>44503.0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C127" s="6">
-        <v>7758.0</v>
-      </c>
-      <c r="F127" s="6">
         <v>7758.0</v>
       </c>
     </row>
@@ -2130,12 +1745,9 @@
         <v>44504.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128" s="6">
-        <v>7465.0</v>
-      </c>
-      <c r="F128" s="6">
         <v>7465.0</v>
       </c>
     </row>
@@ -2144,12 +1756,9 @@
         <v>44505.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="6">
-        <v>12115.0</v>
-      </c>
-      <c r="F129" s="6">
         <v>12115.0</v>
       </c>
     </row>
@@ -2158,12 +1767,9 @@
         <v>44506.0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130" s="6">
-        <v>16059.0</v>
-      </c>
-      <c r="F130" s="6">
         <v>16059.0</v>
       </c>
     </row>
@@ -2172,12 +1778,9 @@
         <v>44507.0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" s="6">
-        <v>14341.0</v>
-      </c>
-      <c r="F131" s="6">
         <v>14341.0</v>
       </c>
     </row>
@@ -2186,12 +1789,9 @@
         <v>44508.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C132" s="6">
-        <v>7573.0</v>
-      </c>
-      <c r="F132" s="6">
         <v>7573.0</v>
       </c>
     </row>
@@ -2200,12 +1800,9 @@
         <v>44509.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" s="6">
-        <v>7968.0</v>
-      </c>
-      <c r="F133" s="6">
         <v>7968.0</v>
       </c>
     </row>
@@ -2214,12 +1811,9 @@
         <v>44510.0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="6">
-        <v>8257.0</v>
-      </c>
-      <c r="F134" s="6">
         <v>8257.0</v>
       </c>
     </row>
@@ -2228,12 +1822,9 @@
         <v>44511.0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" s="6">
-        <v>8983.0</v>
-      </c>
-      <c r="F135" s="6">
         <v>8983.0</v>
       </c>
     </row>
@@ -2242,12 +1833,9 @@
         <v>44512.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136" s="6">
-        <v>10220.0</v>
-      </c>
-      <c r="F136" s="6">
         <v>10220.0</v>
       </c>
     </row>
@@ -2256,12 +1844,9 @@
         <v>44513.0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" s="6">
-        <v>12191.0</v>
-      </c>
-      <c r="F137" s="6">
         <v>12191.0</v>
       </c>
     </row>
@@ -2270,12 +1855,9 @@
         <v>44514.0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" s="6">
-        <v>12109.0</v>
-      </c>
-      <c r="F138" s="6">
         <v>12109.0</v>
       </c>
     </row>
@@ -2284,12 +1866,9 @@
         <v>44515.0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" s="6">
-        <v>6851.0</v>
-      </c>
-      <c r="F139" s="6">
         <v>6851.0</v>
       </c>
     </row>
@@ -2298,12 +1877,9 @@
         <v>44516.0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140" s="6">
-        <v>7195.0</v>
-      </c>
-      <c r="F140" s="6">
         <v>7195.0</v>
       </c>
     </row>
@@ -2312,12 +1888,9 @@
         <v>44517.0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141" s="6">
-        <v>7238.0</v>
-      </c>
-      <c r="F141" s="6">
         <v>7238.0</v>
       </c>
     </row>
@@ -2326,12 +1899,9 @@
         <v>44518.0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" s="6">
-        <v>8078.0</v>
-      </c>
-      <c r="F142" s="6">
         <v>8078.0</v>
       </c>
     </row>
@@ -2340,12 +1910,9 @@
         <v>44519.0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" s="6">
-        <v>10190.0</v>
-      </c>
-      <c r="F143" s="6">
         <v>10190.0</v>
       </c>
     </row>
@@ -2354,12 +1921,9 @@
         <v>44520.0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="6">
-        <v>12055.0</v>
-      </c>
-      <c r="F144" s="6">
         <v>12055.0</v>
       </c>
     </row>
@@ -2368,12 +1932,9 @@
         <v>44521.0</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="6">
-        <v>9774.0</v>
-      </c>
-      <c r="F145" s="6">
         <v>9774.0</v>
       </c>
     </row>
@@ -2382,12 +1943,9 @@
         <v>44522.0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="6">
-        <v>9911.0</v>
-      </c>
-      <c r="F146" s="6">
         <v>9911.0</v>
       </c>
     </row>
@@ -2396,12 +1954,9 @@
         <v>44523.0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" s="6">
-        <v>7109.0</v>
-      </c>
-      <c r="F147" s="6">
         <v>7109.0</v>
       </c>
     </row>
@@ -2410,12 +1965,9 @@
         <v>44524.0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148" s="6">
-        <v>7299.0</v>
-      </c>
-      <c r="F148" s="6">
         <v>7299.0</v>
       </c>
     </row>
@@ -2424,12 +1976,9 @@
         <v>44525.0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149" s="6">
-        <v>7834.0</v>
-      </c>
-      <c r="F149" s="6">
         <v>7834.0</v>
       </c>
     </row>
@@ -2438,12 +1987,9 @@
         <v>44526.0</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" s="6">
-        <v>9434.0</v>
-      </c>
-      <c r="F150" s="6">
         <v>9434.0</v>
       </c>
     </row>
@@ -2452,12 +1998,9 @@
         <v>44527.0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151" s="6">
-        <v>10659.0</v>
-      </c>
-      <c r="F151" s="6">
         <v>10659.0</v>
       </c>
     </row>
@@ -2466,12 +2009,9 @@
         <v>44528.0</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="6">
-        <v>12204.0</v>
-      </c>
-      <c r="F152" s="6">
         <v>12204.0</v>
       </c>
     </row>
@@ -2480,12 +2020,9 @@
         <v>44529.0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153" s="6">
-        <v>7085.0</v>
-      </c>
-      <c r="F153" s="6">
         <v>7085.0</v>
       </c>
     </row>
@@ -2494,12 +2031,9 @@
         <v>44530.0</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" s="6">
-        <v>8185.0</v>
-      </c>
-      <c r="F154" s="6">
         <v>8185.0</v>
       </c>
     </row>
@@ -2508,12 +2042,9 @@
         <v>44531.0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" s="6">
-        <v>8351.0</v>
-      </c>
-      <c r="F155" s="6">
         <v>8351.0</v>
       </c>
     </row>
@@ -2522,12 +2053,9 @@
         <v>44532.0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C156" s="6">
-        <v>8006.0</v>
-      </c>
-      <c r="F156" s="6">
         <v>8006.0</v>
       </c>
     </row>
@@ -2536,12 +2064,9 @@
         <v>44533.0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157" s="6">
-        <v>10455.0</v>
-      </c>
-      <c r="F157" s="6">
         <v>10455.0</v>
       </c>
     </row>
@@ -2550,12 +2075,9 @@
         <v>44534.0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158" s="6">
-        <v>13581.0</v>
-      </c>
-      <c r="F158" s="6">
         <v>13581.0</v>
       </c>
     </row>
@@ -2564,12 +2086,9 @@
         <v>44535.0</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C159" s="6">
-        <v>13881.0</v>
-      </c>
-      <c r="F159" s="6">
         <v>13881.0</v>
       </c>
     </row>
@@ -2578,12 +2097,9 @@
         <v>44536.0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160" s="6">
-        <v>8524.0</v>
-      </c>
-      <c r="F160" s="6">
         <v>8524.0</v>
       </c>
     </row>
@@ -2592,12 +2108,9 @@
         <v>44537.0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" s="6">
-        <v>8657.0</v>
-      </c>
-      <c r="F161" s="6">
         <v>8657.0</v>
       </c>
     </row>
@@ -2606,12 +2119,9 @@
         <v>44538.0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" s="6">
-        <v>10976.0</v>
-      </c>
-      <c r="F162" s="6">
         <v>10976.0</v>
       </c>
     </row>
@@ -2620,12 +2130,9 @@
         <v>44539.0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="6">
-        <v>9185.0</v>
-      </c>
-      <c r="F163" s="6">
         <v>9185.0</v>
       </c>
     </row>
@@ -2634,12 +2141,9 @@
         <v>44540.0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="6">
-        <v>12009.0</v>
-      </c>
-      <c r="F164" s="6">
         <v>12009.0</v>
       </c>
     </row>
@@ -2648,12 +2152,9 @@
         <v>44541.0</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="6">
-        <v>12203.0</v>
-      </c>
-      <c r="F165" s="6">
         <v>12203.0</v>
       </c>
     </row>
@@ -2662,12 +2163,9 @@
         <v>44542.0</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="6">
-        <v>13602.0</v>
-      </c>
-      <c r="F166" s="6">
         <v>13602.0</v>
       </c>
     </row>
@@ -2676,12 +2174,9 @@
         <v>44543.0</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="6">
-        <v>9087.0</v>
-      </c>
-      <c r="F167" s="6">
         <v>9087.0</v>
       </c>
     </row>
@@ -2690,12 +2185,9 @@
         <v>44544.0</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" s="6">
-        <v>9167.0</v>
-      </c>
-      <c r="F168" s="6">
         <v>9167.0</v>
       </c>
     </row>
@@ -2704,12 +2196,9 @@
         <v>44545.0</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="6">
-        <v>14867.0</v>
-      </c>
-      <c r="F169" s="6">
         <v>14867.0</v>
       </c>
     </row>
@@ -2718,12 +2207,9 @@
         <v>44546.0</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="6">
-        <v>16200.0</v>
-      </c>
-      <c r="F170" s="6">
         <v>16200.0</v>
       </c>
     </row>
@@ -2732,12 +2218,9 @@
         <v>44547.0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="6">
-        <v>15914.0</v>
-      </c>
-      <c r="F171" s="6">
         <v>15914.0</v>
       </c>
     </row>
@@ -2746,12 +2229,9 @@
         <v>44548.0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="6">
-        <v>17971.0</v>
-      </c>
-      <c r="F172" s="6">
         <v>17971.0</v>
       </c>
     </row>
@@ -2760,12 +2240,9 @@
         <v>44549.0</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="6">
-        <v>16481.0</v>
-      </c>
-      <c r="F173" s="6">
         <v>16481.0</v>
       </c>
     </row>
@@ -2774,12 +2251,9 @@
         <v>44550.0</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" s="6">
-        <v>18094.0</v>
-      </c>
-      <c r="F174" s="6">
         <v>18094.0</v>
       </c>
     </row>
@@ -2788,12 +2262,9 @@
         <v>44551.0</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" s="6">
-        <v>19468.0</v>
-      </c>
-      <c r="F175" s="6">
         <v>19468.0</v>
       </c>
     </row>
@@ -2802,12 +2273,9 @@
         <v>44552.0</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="6">
-        <v>21147.0</v>
-      </c>
-      <c r="F176" s="6">
         <v>21147.0</v>
       </c>
     </row>
@@ -2816,12 +2284,9 @@
         <v>44553.0</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" s="6">
-        <v>19690.0</v>
-      </c>
-      <c r="F177" s="6">
         <v>19690.0</v>
       </c>
     </row>
@@ -2830,12 +2295,9 @@
         <v>44554.0</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="6">
-        <v>8992.0</v>
-      </c>
-      <c r="F178" s="6">
         <v>8992.0</v>
       </c>
     </row>
@@ -2844,27 +2306,21 @@
         <v>44555.0</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="7">
         <f>AVERAGE(C178,C180)</f>
         <v>11453</v>
       </c>
-      <c r="F179" s="6">
-        <v>4.0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="4">
         <v>44556.0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="6">
-        <v>13914.0</v>
-      </c>
-      <c r="F180" s="6">
         <v>13914.0</v>
       </c>
     </row>
@@ -2873,12 +2329,9 @@
         <v>44557.0</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="6">
-        <v>11668.0</v>
-      </c>
-      <c r="F181" s="6">
         <v>11668.0</v>
       </c>
     </row>
@@ -2887,12 +2340,9 @@
         <v>44558.0</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="6">
-        <v>11622.0</v>
-      </c>
-      <c r="F182" s="6">
         <v>11622.0</v>
       </c>
     </row>
@@ -2901,12 +2351,9 @@
         <v>44559.0</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="6">
-        <v>12593.0</v>
-      </c>
-      <c r="F183" s="6">
         <v>12593.0</v>
       </c>
     </row>
@@ -2915,12 +2362,9 @@
         <v>44560.0</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" s="6">
-        <v>10411.0</v>
-      </c>
-      <c r="F184" s="6">
         <v>10411.0</v>
       </c>
     </row>
@@ -2929,12 +2373,9 @@
         <v>44561.0</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" s="6">
-        <v>6404.0</v>
-      </c>
-      <c r="F185" s="6">
         <v>6404.0</v>
       </c>
     </row>
@@ -2943,27 +2384,21 @@
         <v>44562.0</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="7">
         <f>AVERAGE(C185,C187)</f>
         <v>8663.5</v>
       </c>
-      <c r="F186" s="6">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="4">
         <v>44563.0</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="6">
-        <v>10923.0</v>
-      </c>
-      <c r="F187" s="6">
         <v>10923.0</v>
       </c>
     </row>
@@ -2972,12 +2407,9 @@
         <v>44564.0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="6">
-        <v>9197.0</v>
-      </c>
-      <c r="F188" s="6">
         <v>9197.0</v>
       </c>
     </row>
@@ -2986,12 +2418,9 @@
         <v>44565.0</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="6">
-        <v>9502.0</v>
-      </c>
-      <c r="F189" s="6">
         <v>9502.0</v>
       </c>
     </row>
@@ -3000,12 +2429,9 @@
         <v>44566.0</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="6">
-        <v>11543.0</v>
-      </c>
-      <c r="F190" s="6">
         <v>11543.0</v>
       </c>
     </row>
@@ -3014,12 +2440,9 @@
         <v>44567.0</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="6">
-        <v>10074.0</v>
-      </c>
-      <c r="F191" s="6">
         <v>10074.0</v>
       </c>
     </row>
@@ -3028,12 +2451,9 @@
         <v>44568.0</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="6">
-        <v>10855.0</v>
-      </c>
-      <c r="F192" s="6">
         <v>10855.0</v>
       </c>
     </row>
@@ -3042,12 +2462,9 @@
         <v>44569.0</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="6">
-        <v>11523.0</v>
-      </c>
-      <c r="F193" s="6">
         <v>11523.0</v>
       </c>
     </row>
@@ -3056,12 +2473,9 @@
         <v>44570.0</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" s="6">
-        <v>10774.0</v>
-      </c>
-      <c r="F194" s="6">
         <v>10774.0</v>
       </c>
     </row>
@@ -3070,12 +2484,9 @@
         <v>44571.0</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="6">
-        <v>9542.0</v>
-      </c>
-      <c r="F195" s="6">
         <v>9542.0</v>
       </c>
     </row>
@@ -3084,12 +2495,9 @@
         <v>44572.0</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="6">
-        <v>9807.0</v>
-      </c>
-      <c r="F196" s="6">
         <v>9807.0</v>
       </c>
     </row>
@@ -3098,12 +2506,9 @@
         <v>44573.0</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197" s="6">
-        <v>10877.0</v>
-      </c>
-      <c r="F197" s="6">
         <v>10877.0</v>
       </c>
     </row>
@@ -3112,12 +2517,9 @@
         <v>44574.0</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198" s="6">
-        <v>9862.0</v>
-      </c>
-      <c r="F198" s="6">
         <v>9862.0</v>
       </c>
     </row>
@@ -3126,12 +2528,9 @@
         <v>44575.0</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C199" s="6">
-        <v>11050.0</v>
-      </c>
-      <c r="F199" s="6">
         <v>11050.0</v>
       </c>
     </row>
@@ -3140,12 +2539,9 @@
         <v>44576.0</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C200" s="6">
-        <v>11944.0</v>
-      </c>
-      <c r="F200" s="6">
         <v>11944.0</v>
       </c>
     </row>
@@ -3154,12 +2550,9 @@
         <v>44577.0</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" s="6">
-        <v>12252.0</v>
-      </c>
-      <c r="F201" s="6">
         <v>12252.0</v>
       </c>
     </row>
@@ -3168,12 +2561,9 @@
         <v>44578.0</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="6">
-        <v>9480.0</v>
-      </c>
-      <c r="F202" s="6">
         <v>9480.0</v>
       </c>
     </row>
@@ -3182,12 +2572,9 @@
         <v>44579.0</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" s="6">
-        <v>12771.0</v>
-      </c>
-      <c r="F203" s="6">
         <v>12771.0</v>
       </c>
     </row>
@@ -3196,12 +2583,9 @@
         <v>44580.0</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204" s="6">
-        <v>13477.0</v>
-      </c>
-      <c r="F204" s="6">
         <v>13477.0</v>
       </c>
     </row>
@@ -3210,12 +2594,9 @@
         <v>44581.0</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" s="6">
-        <v>11886.0</v>
-      </c>
-      <c r="F205" s="6">
         <v>11886.0</v>
       </c>
     </row>
@@ -3224,12 +2605,9 @@
         <v>44582.0</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206" s="6">
-        <v>10841.0</v>
-      </c>
-      <c r="F206" s="6">
         <v>10841.0</v>
       </c>
     </row>
@@ -3238,12 +2616,9 @@
         <v>44583.0</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C207" s="6">
-        <v>16012.0</v>
-      </c>
-      <c r="F207" s="6">
         <v>16012.0</v>
       </c>
     </row>
@@ -3252,12 +2627,9 @@
         <v>44584.0</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208" s="6">
-        <v>17074.0</v>
-      </c>
-      <c r="F208" s="6">
         <v>17074.0</v>
       </c>
     </row>
@@ -3266,12 +2638,9 @@
         <v>44585.0</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" s="6">
-        <v>9592.0</v>
-      </c>
-      <c r="F209" s="6">
         <v>9592.0</v>
       </c>
     </row>
@@ -3280,12 +2649,9 @@
         <v>44586.0</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="6">
-        <v>9891.0</v>
-      </c>
-      <c r="F210" s="6">
         <v>9891.0</v>
       </c>
     </row>
@@ -3294,12 +2660,9 @@
         <v>44587.0</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" s="6">
-        <v>11142.0</v>
-      </c>
-      <c r="F211" s="6">
         <v>11142.0</v>
       </c>
     </row>
@@ -3308,12 +2671,9 @@
         <v>44588.0</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C212" s="6">
-        <v>10816.0</v>
-      </c>
-      <c r="F212" s="6">
         <v>10816.0</v>
       </c>
     </row>
@@ -3322,12 +2682,9 @@
         <v>44589.0</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" s="6">
-        <v>11214.0</v>
-      </c>
-      <c r="F213" s="6">
         <v>11214.0</v>
       </c>
     </row>
@@ -3336,12 +2693,9 @@
         <v>44590.0</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" s="6">
-        <v>12211.0</v>
-      </c>
-      <c r="F214" s="6">
         <v>12211.0</v>
       </c>
     </row>
@@ -3350,12 +2704,9 @@
         <v>44591.0</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" s="6">
-        <v>11108.0</v>
-      </c>
-      <c r="F215" s="6">
         <v>11108.0</v>
       </c>
     </row>
@@ -3364,12 +2715,9 @@
         <v>44592.0</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" s="6">
-        <v>9202.0</v>
-      </c>
-      <c r="F216" s="6">
         <v>9202.0</v>
       </c>
     </row>
@@ -3378,12 +2726,9 @@
         <v>44593.0</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" s="6">
-        <v>8128.0</v>
-      </c>
-      <c r="F217" s="6">
         <v>8128.0</v>
       </c>
     </row>
@@ -3392,12 +2737,9 @@
         <v>44594.0</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" s="6">
-        <v>10168.0</v>
-      </c>
-      <c r="F218" s="6">
         <v>10168.0</v>
       </c>
     </row>
@@ -3406,12 +2748,9 @@
         <v>44595.0</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219" s="6">
-        <v>10059.0</v>
-      </c>
-      <c r="F219" s="6">
         <v>10059.0</v>
       </c>
     </row>
@@ -3420,12 +2759,9 @@
         <v>44596.0</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" s="6">
-        <v>11577.0</v>
-      </c>
-      <c r="F220" s="6">
         <v>11577.0</v>
       </c>
     </row>
@@ -3434,12 +2770,9 @@
         <v>44597.0</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" s="6">
-        <v>14798.0</v>
-      </c>
-      <c r="F221" s="6">
         <v>14798.0</v>
       </c>
     </row>
@@ -3448,12 +2781,9 @@
         <v>44598.0</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" s="6">
-        <v>12767.0</v>
-      </c>
-      <c r="F222" s="6">
         <v>12767.0</v>
       </c>
     </row>
@@ -3462,12 +2792,9 @@
         <v>44599.0</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C223" s="6">
-        <v>8402.0</v>
-      </c>
-      <c r="F223" s="6">
         <v>8402.0</v>
       </c>
     </row>
@@ -3476,12 +2803,9 @@
         <v>44600.0</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C224" s="6">
-        <v>8749.0</v>
-      </c>
-      <c r="F224" s="6">
         <v>8749.0</v>
       </c>
     </row>
@@ -3490,12 +2814,9 @@
         <v>44601.0</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225" s="6">
-        <v>9689.0</v>
-      </c>
-      <c r="F225" s="6">
         <v>9689.0</v>
       </c>
     </row>
@@ -3504,12 +2825,9 @@
         <v>44602.0</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="6">
-        <v>8665.0</v>
-      </c>
-      <c r="F226" s="6">
         <v>8665.0</v>
       </c>
     </row>
@@ -3518,12 +2836,9 @@
         <v>44603.0</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="6">
-        <v>13073.0</v>
-      </c>
-      <c r="F227" s="6">
         <v>13073.0</v>
       </c>
     </row>
@@ -3532,12 +2847,9 @@
         <v>44604.0</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="6">
-        <v>13723.0</v>
-      </c>
-      <c r="F228" s="6">
         <v>13723.0</v>
       </c>
     </row>
@@ -3546,12 +2858,9 @@
         <v>44605.0</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="6">
-        <v>11864.0</v>
-      </c>
-      <c r="F229" s="6">
         <v>11864.0</v>
       </c>
     </row>
@@ -3560,12 +2869,9 @@
         <v>44606.0</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="6">
-        <v>11702.0</v>
-      </c>
-      <c r="F230" s="6">
         <v>11702.0</v>
       </c>
     </row>
@@ -3574,12 +2880,9 @@
         <v>44607.0</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="6">
-        <v>8586.0</v>
-      </c>
-      <c r="F231" s="6">
         <v>8586.0</v>
       </c>
     </row>
@@ -3588,12 +2891,9 @@
         <v>44608.0</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" s="6">
-        <v>8969.0</v>
-      </c>
-      <c r="F232" s="6">
         <v>8969.0</v>
       </c>
     </row>
@@ -3602,12 +2902,9 @@
         <v>44609.0</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" s="6">
-        <v>9790.0</v>
-      </c>
-      <c r="F233" s="6">
         <v>9790.0</v>
       </c>
     </row>
@@ -3616,12 +2913,9 @@
         <v>44610.0</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="6">
-        <v>10149.0</v>
-      </c>
-      <c r="F234" s="6">
         <v>10149.0</v>
       </c>
     </row>
@@ -3630,12 +2924,9 @@
         <v>44611.0</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235" s="6">
-        <v>15407.0</v>
-      </c>
-      <c r="F235" s="6">
         <v>15407.0</v>
       </c>
     </row>
@@ -3644,12 +2935,9 @@
         <v>44612.0</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="6">
-        <v>10965.0</v>
-      </c>
-      <c r="F236" s="6">
         <v>10965.0</v>
       </c>
     </row>
@@ -3658,12 +2946,9 @@
         <v>44613.0</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237" s="6">
-        <v>8985.0</v>
-      </c>
-      <c r="F237" s="6">
         <v>8985.0</v>
       </c>
     </row>
@@ -3672,12 +2957,9 @@
         <v>44614.0</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238" s="6">
-        <v>8953.0</v>
-      </c>
-      <c r="F238" s="6">
         <v>8953.0</v>
       </c>
     </row>
@@ -3686,12 +2968,9 @@
         <v>44615.0</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="6">
-        <v>9441.0</v>
-      </c>
-      <c r="F239" s="6">
         <v>9441.0</v>
       </c>
     </row>
@@ -3700,12 +2979,9 @@
         <v>44616.0</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="6">
-        <v>8990.0</v>
-      </c>
-      <c r="F240" s="6">
         <v>8990.0</v>
       </c>
     </row>
@@ -3714,12 +2990,9 @@
         <v>44617.0</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="6">
-        <v>10435.0</v>
-      </c>
-      <c r="F241" s="6">
         <v>10435.0</v>
       </c>
     </row>
@@ -3728,12 +3001,9 @@
         <v>44618.0</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="6">
-        <v>12222.0</v>
-      </c>
-      <c r="F242" s="6">
         <v>12222.0</v>
       </c>
     </row>
@@ -3742,12 +3012,9 @@
         <v>44619.0</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="6">
-        <v>12377.0</v>
-      </c>
-      <c r="F243" s="6">
         <v>12377.0</v>
       </c>
     </row>
@@ -3756,12 +3023,9 @@
         <v>44620.0</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="6">
-        <v>13380.0</v>
-      </c>
-      <c r="F244" s="6">
         <v>13380.0</v>
       </c>
     </row>
@@ -3770,12 +3034,9 @@
         <v>44621.0</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" s="6">
-        <v>11249.0</v>
-      </c>
-      <c r="F245" s="6">
         <v>11249.0</v>
       </c>
     </row>
@@ -3784,12 +3045,9 @@
         <v>44622.0</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246" s="6">
-        <v>8203.0</v>
-      </c>
-      <c r="F246" s="6">
         <v>8203.0</v>
       </c>
     </row>
@@ -3798,12 +3056,9 @@
         <v>44623.0</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" s="6">
-        <v>8233.0</v>
-      </c>
-      <c r="F247" s="6">
         <v>8233.0</v>
       </c>
     </row>
@@ -3812,12 +3067,9 @@
         <v>44624.0</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="6">
-        <v>11200.0</v>
-      </c>
-      <c r="F248" s="6">
         <v>11200.0</v>
       </c>
     </row>
@@ -3826,12 +3078,9 @@
         <v>44625.0</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" s="6">
-        <v>19586.0</v>
-      </c>
-      <c r="F249" s="6">
         <v>19586.0</v>
       </c>
     </row>
@@ -3840,12 +3089,9 @@
         <v>44626.0</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="6">
-        <v>19029.0</v>
-      </c>
-      <c r="F250" s="6">
         <v>19029.0</v>
       </c>
     </row>
@@ -3854,12 +3100,9 @@
         <v>44627.0</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" s="6">
-        <v>8635.0</v>
-      </c>
-      <c r="F251" s="6">
         <v>8635.0</v>
       </c>
     </row>
@@ -3868,12 +3111,9 @@
         <v>44628.0</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="6">
-        <v>9208.0</v>
-      </c>
-      <c r="F252" s="6">
         <v>9208.0</v>
       </c>
     </row>
@@ -3882,12 +3122,9 @@
         <v>44629.0</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="6">
-        <v>8837.0</v>
-      </c>
-      <c r="F253" s="6">
         <v>8837.0</v>
       </c>
     </row>
@@ -3896,12 +3133,9 @@
         <v>44630.0</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="6">
-        <v>9270.0</v>
-      </c>
-      <c r="F254" s="6">
         <v>9270.0</v>
       </c>
     </row>
@@ -3910,12 +3144,9 @@
         <v>44631.0</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="6">
-        <v>11203.0</v>
-      </c>
-      <c r="F255" s="6">
         <v>11203.0</v>
       </c>
     </row>
@@ -3924,12 +3155,9 @@
         <v>44632.0</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="6">
-        <v>15446.0</v>
-      </c>
-      <c r="F256" s="6">
         <v>15446.0</v>
       </c>
     </row>
@@ -3938,12 +3166,9 @@
         <v>44633.0</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="6">
-        <v>14073.0</v>
-      </c>
-      <c r="F257" s="6">
         <v>14073.0</v>
       </c>
     </row>
@@ -3952,12 +3177,9 @@
         <v>44634.0</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258" s="6">
-        <v>7397.0</v>
-      </c>
-      <c r="F258" s="6">
         <v>7397.0</v>
       </c>
     </row>
@@ -3966,12 +3188,9 @@
         <v>44635.0</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" s="6">
-        <v>7906.0</v>
-      </c>
-      <c r="F259" s="6">
         <v>7906.0</v>
       </c>
     </row>
@@ -3980,12 +3199,9 @@
         <v>44636.0</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="6">
-        <v>8581.0</v>
-      </c>
-      <c r="F260" s="6">
         <v>8581.0</v>
       </c>
     </row>
@@ -3994,12 +3210,9 @@
         <v>44637.0</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="6">
-        <v>7349.0</v>
-      </c>
-      <c r="F261" s="6">
         <v>7349.0</v>
       </c>
     </row>
@@ -4008,12 +3221,9 @@
         <v>44638.0</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C262" s="6">
-        <v>11335.0</v>
-      </c>
-      <c r="F262" s="6">
         <v>11335.0</v>
       </c>
     </row>
@@ -4022,12 +3232,9 @@
         <v>44639.0</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C263" s="6">
-        <v>15822.0</v>
-      </c>
-      <c r="F263" s="6">
         <v>15822.0</v>
       </c>
     </row>
@@ -4036,12 +3243,9 @@
         <v>44640.0</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C264" s="6">
-        <v>13042.0</v>
-      </c>
-      <c r="F264" s="6">
         <v>13042.0</v>
       </c>
     </row>
@@ -4050,12 +3254,9 @@
         <v>44641.0</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" s="6">
-        <v>7088.0</v>
-      </c>
-      <c r="F265" s="6">
         <v>7088.0</v>
       </c>
     </row>
@@ -4064,12 +3265,9 @@
         <v>44642.0</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C266" s="6">
-        <v>7914.0</v>
-      </c>
-      <c r="F266" s="6">
         <v>7914.0</v>
       </c>
     </row>
@@ -4078,12 +3276,9 @@
         <v>44643.0</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267" s="6">
-        <v>7898.0</v>
-      </c>
-      <c r="F267" s="6">
         <v>7898.0</v>
       </c>
     </row>
@@ -4092,12 +3287,9 @@
         <v>44644.0</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C268" s="6">
-        <v>13921.0</v>
-      </c>
-      <c r="F268" s="6">
         <v>13921.0</v>
       </c>
     </row>
@@ -4106,12 +3298,9 @@
         <v>44645.0</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C269" s="6">
-        <v>9771.0</v>
-      </c>
-      <c r="F269" s="6">
         <v>9771.0</v>
       </c>
     </row>
@@ -4120,12 +3309,9 @@
         <v>44646.0</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C270" s="6">
-        <v>14725.0</v>
-      </c>
-      <c r="F270" s="6">
         <v>14725.0</v>
       </c>
     </row>
@@ -4134,12 +3320,9 @@
         <v>44647.0</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C271" s="6">
-        <v>11346.0</v>
-      </c>
-      <c r="F271" s="6">
         <v>11346.0</v>
       </c>
     </row>
@@ -4148,12 +3331,9 @@
         <v>44648.0</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C272" s="6">
-        <v>6306.0</v>
-      </c>
-      <c r="F272" s="6">
         <v>6306.0</v>
       </c>
     </row>
@@ -4162,12 +3342,9 @@
         <v>44649.0</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C273" s="6">
-        <v>6414.0</v>
-      </c>
-      <c r="F273" s="6">
         <v>6414.0</v>
       </c>
     </row>
@@ -4176,12 +3353,9 @@
         <v>44650.0</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C274" s="6">
-        <v>6974.0</v>
-      </c>
-      <c r="F274" s="6">
         <v>6974.0</v>
       </c>
     </row>
@@ -4190,12 +3364,9 @@
         <v>44651.0</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C275" s="6">
-        <v>7269.0</v>
-      </c>
-      <c r="F275" s="6">
         <v>7269.0</v>
       </c>
     </row>
@@ -4204,12 +3375,9 @@
         <v>44652.0</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C276" s="6">
-        <v>9872.0</v>
-      </c>
-      <c r="F276" s="6">
         <v>9872.0</v>
       </c>
     </row>
@@ -4218,12 +3386,9 @@
         <v>44653.0</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277" s="6">
-        <v>14251.0</v>
-      </c>
-      <c r="F277" s="6">
         <v>14251.0</v>
       </c>
     </row>
@@ -4232,12 +3397,9 @@
         <v>44654.0</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C278" s="6">
-        <v>12306.0</v>
-      </c>
-      <c r="F278" s="6">
         <v>12306.0</v>
       </c>
     </row>
@@ -4246,12 +3408,9 @@
         <v>44655.0</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279" s="6">
-        <v>6416.0</v>
-      </c>
-      <c r="F279" s="6">
         <v>6416.0</v>
       </c>
     </row>
@@ -4260,12 +3419,9 @@
         <v>44656.0</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280" s="6">
-        <v>6877.0</v>
-      </c>
-      <c r="F280" s="6">
         <v>6877.0</v>
       </c>
     </row>
@@ -4274,12 +3430,9 @@
         <v>44657.0</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281" s="6">
-        <v>7174.0</v>
-      </c>
-      <c r="F281" s="6">
         <v>7174.0</v>
       </c>
     </row>
@@ -4288,12 +3441,9 @@
         <v>44658.0</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C282" s="6">
-        <v>7886.0</v>
-      </c>
-      <c r="F282" s="6">
         <v>7886.0</v>
       </c>
     </row>
@@ -4302,12 +3452,9 @@
         <v>44659.0</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C283" s="6">
-        <v>10536.0</v>
-      </c>
-      <c r="F283" s="6">
         <v>10536.0</v>
       </c>
     </row>
@@ -4316,12 +3463,9 @@
         <v>44660.0</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C284" s="6">
-        <v>15214.0</v>
-      </c>
-      <c r="F284" s="6">
         <v>15214.0</v>
       </c>
     </row>
@@ -4330,12 +3474,9 @@
         <v>44661.0</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285" s="6">
-        <v>14152.0</v>
-      </c>
-      <c r="F285" s="6">
         <v>14152.0</v>
       </c>
     </row>
@@ -4344,12 +3485,9 @@
         <v>44662.0</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C286" s="6">
-        <v>6959.0</v>
-      </c>
-      <c r="F286" s="6">
         <v>6959.0</v>
       </c>
     </row>
@@ -4358,12 +3496,9 @@
         <v>44663.0</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C287" s="6">
-        <v>7492.0</v>
-      </c>
-      <c r="F287" s="6">
         <v>7492.0</v>
       </c>
     </row>
@@ -4372,12 +3507,9 @@
         <v>44664.0</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C288" s="6">
-        <v>9150.0</v>
-      </c>
-      <c r="F288" s="6">
         <v>9150.0</v>
       </c>
     </row>
@@ -4386,12 +3518,9 @@
         <v>44665.0</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C289" s="6">
-        <v>15006.0</v>
-      </c>
-      <c r="F289" s="6">
         <v>15006.0</v>
       </c>
     </row>
@@ -4400,12 +3529,9 @@
         <v>44666.0</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C290" s="6">
-        <v>15197.0</v>
-      </c>
-      <c r="F290" s="6">
         <v>15197.0</v>
       </c>
     </row>
@@ -4414,12 +3540,9 @@
         <v>44667.0</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291" s="6">
-        <v>15814.0</v>
-      </c>
-      <c r="F291" s="6">
         <v>15814.0</v>
       </c>
     </row>
@@ -4428,12 +3551,9 @@
         <v>44668.0</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C292" s="6">
-        <v>10214.0</v>
-      </c>
-      <c r="F292" s="6">
         <v>10214.0</v>
       </c>
     </row>
@@ -4442,12 +3562,9 @@
         <v>44669.0</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" s="6">
-        <v>6677.0</v>
-      </c>
-      <c r="F293" s="6">
         <v>6677.0</v>
       </c>
     </row>
@@ -4456,12 +3573,9 @@
         <v>44670.0</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C294" s="6">
-        <v>7748.0</v>
-      </c>
-      <c r="F294" s="6">
         <v>7748.0</v>
       </c>
     </row>
@@ -4470,12 +3584,9 @@
         <v>44671.0</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C295" s="6">
-        <v>6821.0</v>
-      </c>
-      <c r="F295" s="6">
         <v>6821.0</v>
       </c>
     </row>
@@ -4484,12 +3595,9 @@
         <v>44672.0</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296" s="6">
-        <v>7652.0</v>
-      </c>
-      <c r="F296" s="6">
         <v>7652.0</v>
       </c>
     </row>
@@ -4498,12 +3606,9 @@
         <v>44673.0</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C297" s="6">
-        <v>10133.0</v>
-      </c>
-      <c r="F297" s="6">
         <v>10133.0</v>
       </c>
     </row>
@@ -4512,12 +3617,9 @@
         <v>44674.0</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C298" s="6">
-        <v>14979.0</v>
-      </c>
-      <c r="F298" s="6">
         <v>14979.0</v>
       </c>
     </row>
@@ -4526,12 +3628,9 @@
         <v>44675.0</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C299" s="6">
-        <v>12364.0</v>
-      </c>
-      <c r="F299" s="6">
         <v>12364.0</v>
       </c>
     </row>
@@ -4540,12 +3639,9 @@
         <v>44676.0</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300" s="6">
-        <v>6577.0</v>
-      </c>
-      <c r="F300" s="6">
         <v>6577.0</v>
       </c>
     </row>
@@ -4554,12 +3650,9 @@
         <v>44677.0</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C301" s="6">
-        <v>6950.0</v>
-      </c>
-      <c r="F301" s="6">
         <v>6950.0</v>
       </c>
     </row>
@@ -4568,12 +3661,9 @@
         <v>44678.0</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302" s="6">
-        <v>7268.0</v>
-      </c>
-      <c r="F302" s="6">
         <v>7268.0</v>
       </c>
     </row>
@@ -4582,12 +3672,9 @@
         <v>44679.0</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C303" s="6">
-        <v>7014.0</v>
-      </c>
-      <c r="F303" s="6">
         <v>7014.0</v>
       </c>
     </row>
@@ -4596,12 +3683,9 @@
         <v>44680.0</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C304" s="6">
-        <v>9631.0</v>
-      </c>
-      <c r="F304" s="6">
         <v>9631.0</v>
       </c>
     </row>
@@ -4610,12 +3694,9 @@
         <v>44681.0</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C305" s="6">
-        <v>14303.0</v>
-      </c>
-      <c r="F305" s="6">
         <v>14303.0</v>
       </c>
     </row>
@@ -4624,12 +3705,9 @@
         <v>44683.0</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C306" s="6">
-        <v>6881.0</v>
-      </c>
-      <c r="F306" s="6">
         <v>6881.0</v>
       </c>
     </row>
@@ -4638,12 +3716,9 @@
         <v>44684.0</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C307" s="6">
-        <v>7101.0</v>
-      </c>
-      <c r="F307" s="6">
         <v>7101.0</v>
       </c>
     </row>
@@ -4652,12 +3727,9 @@
         <v>44685.0</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C308" s="6">
-        <v>10367.0</v>
-      </c>
-      <c r="F308" s="6">
         <v>10367.0</v>
       </c>
     </row>
@@ -4666,12 +3738,9 @@
         <v>44686.0</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C309" s="6">
-        <v>9833.0</v>
-      </c>
-      <c r="F309" s="6">
         <v>9833.0</v>
       </c>
     </row>
@@ -4680,12 +3749,9 @@
         <v>44687.0</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C310" s="6">
-        <v>13222.0</v>
-      </c>
-      <c r="F310" s="6">
         <v>13222.0</v>
       </c>
     </row>
@@ -4694,12 +3760,9 @@
         <v>44688.0</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C311" s="6">
-        <v>19840.0</v>
-      </c>
-      <c r="F311" s="6">
         <v>19840.0</v>
       </c>
     </row>
@@ -4708,12 +3771,9 @@
         <v>44689.0</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C312" s="6">
-        <v>17406.0</v>
-      </c>
-      <c r="F312" s="6">
         <v>17406.0</v>
       </c>
     </row>
@@ -4722,12 +3782,9 @@
         <v>44690.0</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C313" s="6">
-        <v>8501.0</v>
-      </c>
-      <c r="F313" s="6">
         <v>8501.0</v>
       </c>
     </row>
@@ -4736,12 +3793,9 @@
         <v>44691.0</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C314" s="6">
-        <v>8317.0</v>
-      </c>
-      <c r="F314" s="6">
         <v>8317.0</v>
       </c>
     </row>
@@ -4750,12 +3804,9 @@
         <v>44692.0</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315" s="6">
-        <v>8288.0</v>
-      </c>
-      <c r="F315" s="6">
         <v>8288.0</v>
       </c>
     </row>
@@ -4764,12 +3815,9 @@
         <v>44693.0</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C316" s="6">
-        <v>8203.0</v>
-      </c>
-      <c r="F316" s="6">
         <v>8203.0</v>
       </c>
     </row>
@@ -4778,12 +3826,9 @@
         <v>44694.0</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C317" s="6">
-        <v>11948.0</v>
-      </c>
-      <c r="F317" s="6">
         <v>11948.0</v>
       </c>
     </row>
@@ -4792,12 +3837,9 @@
         <v>44695.0</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C318" s="6">
-        <v>18095.0</v>
-      </c>
-      <c r="F318" s="6">
         <v>18095.0</v>
       </c>
     </row>
@@ -4806,12 +3848,9 @@
         <v>44696.0</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C319" s="6">
-        <v>17187.0</v>
-      </c>
-      <c r="F319" s="6">
         <v>17187.0</v>
       </c>
     </row>
@@ -4820,12 +3859,9 @@
         <v>44697.0</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C320" s="6">
-        <v>6872.0</v>
-      </c>
-      <c r="F320" s="6">
         <v>6872.0</v>
       </c>
     </row>
@@ -4834,12 +3870,9 @@
         <v>44698.0</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C321" s="6">
-        <v>9633.0</v>
-      </c>
-      <c r="F321" s="6">
         <v>9633.0</v>
       </c>
     </row>
@@ -4848,7 +3881,7 @@
         <v>44699.0</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C322" s="6">
         <f>D322</f>
@@ -4857,21 +3890,15 @@
       <c r="D322" s="8">
         <v>10197.0</v>
       </c>
-      <c r="F322" s="6">
-        <v>39.0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="4">
         <v>44700.0</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C323" s="6">
-        <v>8264.0</v>
-      </c>
-      <c r="F323" s="6">
         <v>8264.0</v>
       </c>
     </row>
@@ -4880,12 +3907,9 @@
         <v>44701.0</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C324" s="6">
-        <v>10402.0</v>
-      </c>
-      <c r="F324" s="6">
         <v>10402.0</v>
       </c>
     </row>
@@ -4894,12 +3918,9 @@
         <v>44702.0</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C325" s="6">
-        <v>16187.0</v>
-      </c>
-      <c r="F325" s="6">
         <v>16187.0</v>
       </c>
     </row>
@@ -4908,12 +3929,9 @@
         <v>44703.0</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C326" s="6">
-        <v>13944.0</v>
-      </c>
-      <c r="F326" s="6">
         <v>13944.0</v>
       </c>
     </row>
@@ -4922,12 +3940,9 @@
         <v>44704.0</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327" s="6">
-        <v>7039.0</v>
-      </c>
-      <c r="F327" s="6">
         <v>7039.0</v>
       </c>
     </row>
@@ -4936,12 +3951,9 @@
         <v>44705.0</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C328" s="6">
-        <v>9168.0</v>
-      </c>
-      <c r="F328" s="6">
         <v>9168.0</v>
       </c>
     </row>
@@ -4950,12 +3962,9 @@
         <v>44706.0</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C329" s="6">
-        <v>11935.0</v>
-      </c>
-      <c r="F329" s="6">
         <v>11935.0</v>
       </c>
     </row>
@@ -4964,12 +3973,9 @@
         <v>44707.0</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C330" s="6">
-        <v>7842.0</v>
-      </c>
-      <c r="F330" s="6">
         <v>7842.0</v>
       </c>
     </row>
@@ -4978,12 +3984,9 @@
         <v>44708.0</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C331" s="6">
-        <v>11062.0</v>
-      </c>
-      <c r="F331" s="6">
         <v>11062.0</v>
       </c>
     </row>
@@ -4992,12 +3995,9 @@
         <v>44709.0</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C332" s="6">
-        <v>16154.0</v>
-      </c>
-      <c r="F332" s="6">
         <v>16154.0</v>
       </c>
     </row>
@@ -5006,12 +4006,9 @@
         <v>44710.0</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C333" s="6">
-        <v>15082.0</v>
-      </c>
-      <c r="F333" s="6">
         <v>15082.0</v>
       </c>
     </row>
@@ -5020,12 +4017,9 @@
         <v>44711.0</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C334" s="6">
-        <v>7068.0</v>
-      </c>
-      <c r="F334" s="6">
         <v>7068.0</v>
       </c>
     </row>
@@ -5034,12 +4028,9 @@
         <v>44712.0</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C335" s="6">
-        <v>7984.0</v>
-      </c>
-      <c r="F335" s="6">
         <v>7984.0</v>
       </c>
     </row>
@@ -5048,20 +4039,12 @@
         <f>MAX(C2:C335)</f>
         <v>21147</v>
       </c>
-      <c r="F336" s="9">
-        <f>MAX(F2:F335)</f>
-        <v>21147</v>
-      </c>
     </row>
     <row r="337">
       <c r="C337" s="9">
         <f>MIN(C2:C335)</f>
         <v>1710</v>
       </c>
-      <c r="F337" s="9">
-        <f>MIN(F2:F335)</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="338">
       <c r="C338" s="9">
